--- a/scratch/test_adc_bme/adc_cal.xlsx
+++ b/scratch/test_adc_bme/adc_cal.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zpang\Documents\Senior Design\RemoteWeatherStation\scratch\test_adc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zpang\Documents\Senior Design\RemoteWeatherStation\scratch\test_adc_bme\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAF79D5B-11D4-4B7D-857D-328CFB47041C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEB8FE83-7A35-4AF0-889C-ED73A46EE374}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25490" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -118,7 +118,17 @@
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13043645220023173"/>
+          <c:y val="2.8909329829172142E-2"/>
+          <c:w val="0.82097108131753804"/>
+          <c:h val="0.85439341107328737"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -684,6 +694,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Input Voltage (V)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -746,6 +811,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>ADC Reading</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -795,6 +915,51 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.7040910977441851"/>
+          <c:y val="0.73067782755802047"/>
+          <c:w val="0.20647855543669513"/>
+          <c:h val="8.8699700973646378E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1406,9 +1571,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>377825</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:colOff>82550</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1702,7 +1867,7 @@
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1811,7 +1976,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9">
-        <f t="shared" ref="A9:A35" si="1">A8-0.1</f>
+        <f t="shared" ref="A9:A33" si="1">A8-0.1</f>
         <v>2.5999999999999996</v>
       </c>
       <c r="B9">
